--- a/simulation files/simulation calcs.xlsx
+++ b/simulation files/simulation calcs.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27823"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ccgs-my.sharepoint.com/personal/1091560_student_ccgs_wa_edu_au/Documents/Computer Stuff/Desktop/folder/engineering studies/electromagneticMarbleMachine/simulation files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1055" documentId="8_{5BC93FA3-6DE5-462B-B897-51A886D8D6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCE95DE5-2A58-425A-AFFC-369FBE4F74AB}"/>
+  <xr:revisionPtr revIDLastSave="1097" documentId="8_{5BC93FA3-6DE5-462B-B897-51A886D8D6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CB6FB3F-A997-4708-9923-9AAED351A33D}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{CF256258-7E9F-4B12-B871-A8C1829CDE4F}"/>
+    <workbookView minimized="1" xWindow="2610" yWindow="1545" windowWidth="14483" windowHeight="10020" xr2:uid="{CF256258-7E9F-4B12-B871-A8C1829CDE4F}"/>
   </bookViews>
   <sheets>
     <sheet name="femm simulation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'femm simulation'!$V$23:$V$42</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'femm simulation'!$W$23:$W$42</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,82 +36,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+  <si>
+    <t>FEMM model output</t>
+  </si>
+  <si>
+    <t>FEMM model calculations</t>
+  </si>
   <si>
     <t>constants</t>
   </si>
   <si>
-    <t>mass (g)</t>
+    <t>velocity vs voltage for coils @ 680uF</t>
   </si>
   <si>
-    <r>
-      <t>velocity (ms</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>50-turn 1.6mm coil</t>
   </si>
   <si>
-    <r>
-      <t>velocity (kmh</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>40-turn 2.0mm coil</t>
   </si>
   <si>
-    <t>height (m)</t>
+    <t>440V 50-turn 1.6mm coil</t>
   </si>
   <si>
-    <t>capacitance (uF)</t>
+    <t>440V 40-turn 2.0mm coil</t>
   </si>
   <si>
-    <t>voltage (V)</t>
-  </si>
-  <si>
-    <t>efficiency (%)</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>energy (J)</t>
+    <t>mass (g)</t>
   </si>
   <si>
     <t>distance (m)</t>
@@ -127,22 +74,13 @@
     <t>integral (J)</t>
   </si>
   <si>
-    <t>50-turn 1.6mm coil</t>
+    <t>estimated outputs</t>
   </si>
   <si>
-    <t>40-turn 2.0mm coil</t>
+    <t>capacitance (uF)</t>
   </si>
   <si>
-    <t>5-coil outputs</t>
-  </si>
-  <si>
-    <t>440V 50-turn 1.6mm coil</t>
-  </si>
-  <si>
-    <t>440V 40-turn 2.0mm coil</t>
-  </si>
-  <si>
-    <t>single coil outputs</t>
+    <t>voltage (V)</t>
   </si>
   <si>
     <r>
@@ -181,12 +119,6 @@
     </r>
   </si>
   <si>
-    <t>custom input calculation</t>
-  </si>
-  <si>
-    <t>custom inputs</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">velocity </t>
     </r>
@@ -223,22 +155,89 @@
     </r>
   </si>
   <si>
-    <t>velocity vs voltage for coils @ 680uF</t>
+    <t>energy</t>
   </si>
   <si>
-    <t>FEMM model output</t>
+    <r>
+      <t>velocity (ms</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
-    <t>FEMM model calculations</t>
+    <t>custom inputs</t>
   </si>
   <si>
-    <t>estimated outputs</t>
+    <r>
+      <t>velocity (kmh</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>height (m)</t>
+  </si>
+  <si>
+    <t>single coil outputs</t>
+  </si>
+  <si>
+    <t>energy (J)</t>
   </si>
   <si>
     <t>all coils have a winding length of 16mm</t>
   </si>
   <si>
     <t>integral of eq. = 0.5mv^2-0.5mu^2</t>
+  </si>
+  <si>
+    <t>efficiency (%)</t>
+  </si>
+  <si>
+    <t>5-coil outputs</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>custom input calculation</t>
   </si>
   <si>
     <r>
@@ -270,7 +269,40 @@
     <t>№ of coils</t>
   </si>
   <si>
-    <t>`</t>
+    <r>
+      <t xml:space="preserve">velocity </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(kmh</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -283,7 +315,7 @@
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,7 +449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -830,11 +862,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,9 +1007,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -950,7 +1014,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -991,6 +1067,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1302,7 +1384,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2585,7 +2667,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3869,7 +3951,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4041,9 +4123,9 @@
             <c:numRef>
               <c:f>'femm simulation'!$W$23:$W$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0" formatCode="0.000">
+                <c:pt idx="0">
                   <c:v>12.549203959204275</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -6207,16 +6289,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>3852</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>24924</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>6179</xdr:rowOff>
+      <xdr:rowOff>1964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>10335</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>31408</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>178323</xdr:rowOff>
+      <xdr:rowOff>174108</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6242,10 +6324,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6621,144 +6699,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D04326-F609-4614-8A62-FE82D77F3828}">
   <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="68" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="5" width="12.73046875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1328125" style="1"/>
-    <col min="7" max="10" width="12.73046875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1328125" style="1"/>
-    <col min="12" max="12" width="12.59765625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1328125" style="1"/>
-    <col min="15" max="16" width="12.73046875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.73046875" style="1" customWidth="1"/>
-    <col min="18" max="19" width="12.73046875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.73046875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9.1328125" style="1"/>
-    <col min="22" max="23" width="12.59765625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="5" width="12.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="12.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="16" width="12.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" style="1" customWidth="1"/>
+    <col min="18" max="19" width="12.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="1"/>
+    <col min="22" max="24" width="12.5703125" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
+    <row r="1" spans="1:20" ht="16.149999999999999" thickBot="1">
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
       <c r="F1" s="30"/>
-      <c r="G1" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
+      <c r="G1" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
       <c r="K1" s="23"/>
-      <c r="L1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="62"/>
-      <c r="O1" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="73"/>
+      <c r="L1" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="65"/>
+      <c r="O1" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="78"/>
     </row>
-    <row r="2" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:20" ht="14.65" thickBot="1">
       <c r="A2" s="46"/>
-      <c r="B2" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="64"/>
+      <c r="B2" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="67"/>
       <c r="F2" s="30"/>
-      <c r="G2" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="64"/>
+      <c r="G2" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="72"/>
+      <c r="I2" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="67"/>
       <c r="K2" s="23"/>
       <c r="L2" s="22" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M2" s="16">
         <v>16</v>
       </c>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="84"/>
+      <c r="T2" s="85"/>
+    </row>
+    <row r="3" spans="1:20" ht="15">
+      <c r="A3" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="63"/>
+      <c r="L3" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="79"/>
-      <c r="T2" s="80"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.45">
-      <c r="A3" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="60"/>
-      <c r="L3" s="7" t="s">
-        <v>5</v>
       </c>
       <c r="M3" s="17">
         <v>680</v>
       </c>
       <c r="N3" s="31"/>
       <c r="O3" s="33" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P3" s="32" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R3" s="32" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="S3" s="28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20">
       <c r="A4" s="48">
         <v>-0.03</v>
       </c>
@@ -6777,21 +6854,21 @@
         <v>2.1859714072648851E-3</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H4" s="6">
         <f>0.5*($M$3*10^-6)*$M$4^2</f>
         <v>65.823999999999998</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J4" s="6">
         <f>0.5*($M$3*10^-6)*$M$4^2</f>
         <v>65.823999999999998</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M4" s="21">
         <v>440</v>
@@ -6820,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" ht="15">
       <c r="A5" s="48">
         <v>-2.9000000000000001E-2</v>
       </c>
@@ -6839,23 +6916,23 @@
         <v>2.6153037098887401E-3</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H5" s="6">
         <f>SQRT((2*H4)/(M2*10^-3))</f>
         <v>90.708323763588538</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J5" s="6">
         <f>SQRT((2*J4)/(M2*10^-3))</f>
         <v>90.708323763588538</v>
       </c>
-      <c r="L5" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="62"/>
+      <c r="L5" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="65"/>
       <c r="O5" s="37">
         <v>10</v>
       </c>
@@ -6879,7 +6956,7 @@
         <v>0.82061978952007375</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" ht="15">
       <c r="A6" s="48">
         <v>-2.8000000000000001E-2</v>
       </c>
@@ -6898,14 +6975,14 @@
         <v>3.1377700423398103E-3</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H6" s="6">
         <f>H5*3.6</f>
         <v>326.54996554891875</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J6" s="6">
         <f>J5*3.6</f>
@@ -6913,7 +6990,7 @@
       </c>
       <c r="K6" s="23"/>
       <c r="L6" s="22" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M6" s="16">
         <v>440</v>
@@ -6941,7 +7018,7 @@
         <v>1.6412395790401475</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:20" ht="14.65" thickBot="1">
       <c r="A7" s="48">
         <v>-2.7E-2</v>
       </c>
@@ -6960,21 +7037,21 @@
         <v>3.7747348198294904E-3</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H7" s="9">
         <f>H4/((M2*10^-3)*9.81)</f>
         <v>419.367991845056</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J7" s="9">
         <f>J4/((M2*10^-3)*9.81)</f>
         <v>419.367991845056</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M7" s="18">
         <v>680</v>
@@ -7002,7 +7079,7 @@
         <v>2.4618593685602215</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20">
       <c r="A8" s="48">
         <v>-2.6000000000000002E-2</v>
       </c>
@@ -7020,12 +7097,12 @@
         <f t="shared" si="3"/>
         <v>4.5517244431044794E-3</v>
       </c>
-      <c r="G8" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
+      <c r="G8" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
       <c r="O8" s="37">
         <v>40</v>
       </c>
@@ -7049,7 +7126,7 @@
         <v>3.282479158080295</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" ht="14.25" customHeight="1">
       <c r="A9" s="48">
         <v>-2.5000000000000001E-2</v>
       </c>
@@ -7068,23 +7145,23 @@
         <v>5.5003371574690249E-3</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="H9" s="6">
         <f>Table2[[#Totals],[integral (J)]]</f>
         <v>1.2598601600776662</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J9" s="6">
         <f>Table4[[#Totals],[integral (J)]]</f>
         <v>0.80477469148828051</v>
       </c>
-      <c r="L9" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="70"/>
+      <c r="L9" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="73"/>
       <c r="O9" s="37">
         <v>50</v>
       </c>
@@ -7108,7 +7185,7 @@
         <v>4.103098947600369</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" ht="15">
       <c r="A10" s="48">
         <v>-2.4E-2</v>
       </c>
@@ -7127,21 +7204,21 @@
         <v>6.6562094669204248E-3</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H10" s="6">
         <f>SQRT((2*C34)/(M2*10^-3))</f>
         <v>12.549203959204275</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J10" s="6">
         <f>SQRT((2*E34)/(M2*10^-3))</f>
         <v>10.029797427467569</v>
       </c>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="O10" s="37">
         <v>60</v>
       </c>
@@ -7165,7 +7242,7 @@
         <v>4.9237187371204429</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" ht="15" customHeight="1">
       <c r="A11" s="48">
         <v>-2.3E-2</v>
       </c>
@@ -7184,23 +7261,23 @@
         <v>8.0624821228579349E-3</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H11" s="6">
         <f>H10*3.6</f>
         <v>45.177134253135392</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J11" s="6">
         <f>J10*3.6</f>
         <v>36.107270738883251</v>
       </c>
-      <c r="L11" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="70"/>
+      <c r="L11" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="73"/>
       <c r="O11" s="37">
         <v>70</v>
       </c>
@@ -7224,7 +7301,7 @@
         <v>5.7443385266405169</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20">
       <c r="A12" s="48">
         <v>-2.1999999999999999E-2</v>
       </c>
@@ -7243,21 +7320,21 @@
         <v>9.769041777827156E-3</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H12" s="6">
         <f>H9/((M2*10^-3)*9.81)</f>
         <v>8.0266320086497576</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J12" s="6">
         <f>J9/((M2*10^-3)*9.81)</f>
         <v>5.1272597571883312</v>
       </c>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
       <c r="O12" s="37">
         <v>80</v>
       </c>
@@ -7281,7 +7358,7 @@
         <v>6.56495831616059</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:20" ht="14.65" thickBot="1">
       <c r="A13" s="48">
         <v>-2.1000000000000001E-2</v>
       </c>
@@ -7300,14 +7377,14 @@
         <v>1.18287575811466E-2</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="H13" s="9">
         <f>(H9/H4)*100</f>
         <v>1.9139829850474996</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="J13" s="9">
         <f>(J9/J4)*100</f>
@@ -7338,7 +7415,7 @@
         <v>7.385578105680664</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20">
       <c r="A14" s="48">
         <v>-0.02</v>
       </c>
@@ -7356,15 +7433,15 @@
         <f t="shared" si="3"/>
         <v>1.429667466803715E-2</v>
       </c>
-      <c r="G14" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="60"/>
+      <c r="G14" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="63"/>
       <c r="L14" s="51"/>
       <c r="M14" s="51" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O14" s="37">
         <v>100</v>
@@ -7389,7 +7466,7 @@
         <v>8.2061978952007379</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20">
       <c r="A15" s="48">
         <v>-1.9E-2</v>
       </c>
@@ -7408,14 +7485,14 @@
         <v>1.7227947406555151E-2</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="H15" s="6">
         <f>0.5*(M2*10^-3)*H16^2</f>
         <v>65.334915839106003</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J15" s="6">
         <f>J9*5</f>
@@ -7446,7 +7523,7 @@
         <v>9.0268176847208128</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" ht="15">
       <c r="A16" s="48">
         <v>-1.8000000000000002E-2</v>
       </c>
@@ -7465,14 +7542,14 @@
         <v>2.0667016377011599E-2</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H16" s="6">
         <f>W27</f>
         <v>90.370705872468704</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J16" s="6">
         <f>J10*5</f>
@@ -7503,7 +7580,7 @@
         <v>9.8474374742408859</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:25" ht="15">
       <c r="A17" s="48">
         <v>-1.7000000000000001E-2</v>
       </c>
@@ -7522,14 +7599,14 @@
         <v>2.4630166506014E-2</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H17" s="6">
         <f>H16*3.6</f>
         <v>325.33454114088732</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J17" s="6">
         <f>J11*5</f>
@@ -7560,7 +7637,7 @@
         <v>10.668057263760961</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:25" ht="14.65" thickBot="1">
       <c r="A18" s="48">
         <v>-1.6E-2</v>
       </c>
@@ -7579,14 +7656,14 @@
         <v>2.91049942335685E-2</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H18" s="9">
         <f>H12*5</f>
         <v>40.133160043248786</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J18" s="9">
         <f>J12*5</f>
@@ -7615,7 +7692,7 @@
         <v>11.488677053281034</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:25">
       <c r="A19" s="48">
         <v>-1.4999999999999999E-2</v>
       </c>
@@ -7633,12 +7710,12 @@
         <f t="shared" si="3"/>
         <v>3.4028884965097407E-2</v>
       </c>
-      <c r="G19" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="60"/>
+      <c r="G19" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
       <c r="O19" s="37">
         <v>150</v>
       </c>
@@ -7662,7 +7739,7 @@
         <v>12.309296842801107</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:25">
       <c r="A20" s="48">
         <v>-1.4E-2</v>
       </c>
@@ -7681,14 +7758,14 @@
         <v>3.9256083827498005E-2</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="H20" s="6">
         <f>0.5*(M7*10^-6)*M6^2*(H13/100)</f>
         <v>1.2598601600776662</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J20" s="6">
         <f>0.5*(M7*10^-6)*M6^2*(J13/100)</f>
@@ -7717,7 +7794,7 @@
         <v>13.12991663232118</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:25" ht="15" customHeight="1">
       <c r="A21" s="48">
         <v>-1.3000000000000001E-2</v>
       </c>
@@ -7736,14 +7813,14 @@
         <v>4.454367875233655E-2</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H21" s="6">
         <f>SQRT((2*H20)/(M2*10^-3))</f>
         <v>12.549203959204275</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J21" s="6">
         <f>SQRT((2*J20)/(M2*10^-3))</f>
@@ -7771,12 +7848,13 @@
         <f t="shared" si="5"/>
         <v>13.950536421841255</v>
       </c>
-      <c r="V21" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="W21" s="57"/>
+      <c r="V21" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
     </row>
-    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:25" ht="15">
       <c r="A22" s="48">
         <v>-1.2E-2</v>
       </c>
@@ -7795,14 +7873,14 @@
         <v>4.9572672848648455E-2</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H22" s="6">
         <f>H21*3.6</f>
         <v>45.177134253135392</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J22" s="6">
         <f>J21*3.6</f>
@@ -7831,13 +7909,16 @@
         <v>14.771156211361328</v>
       </c>
       <c r="V22" s="28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W22" s="32" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="X22" s="32" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:25" ht="14.65" thickBot="1">
       <c r="A23" s="48">
         <v>-1.0999999999999999E-2</v>
       </c>
@@ -7856,14 +7937,14 @@
         <v>5.3943368485579658E-2</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H23" s="24">
         <f>H20/((M2*10^-3)*9.81)</f>
         <v>8.0266320086497576</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J23" s="24">
         <f>J20/((M2*10^-3)*9.81)</f>
@@ -7894,14 +7975,17 @@
       <c r="V23" s="52">
         <v>1</v>
       </c>
-      <c r="W23" s="53">
+      <c r="W23" s="56">
         <f>H10</f>
         <v>12.549203959204275</v>
       </c>
-      <c r="X23" s="55"/>
+      <c r="X23" s="57">
+        <f>3.6*W23</f>
+        <v>45.177134253135392</v>
+      </c>
       <c r="Y23" s="4"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:25">
       <c r="A24" s="48">
         <v>-0.01</v>
       </c>
@@ -7948,14 +8032,16 @@
       <c r="V24" s="52">
         <v>2</v>
       </c>
-      <c r="W24" s="52">
+      <c r="W24" s="56">
         <f>SQRT(($H$9+(0.5*($M$2*10^-3)*(W23*10^2)))/(0.5*($M$2*10^-3)))</f>
         <v>37.581949336485138</v>
       </c>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="4"/>
+      <c r="X24" s="58">
+        <f t="shared" ref="X24:X42" si="6">3.6*W24</f>
+        <v>135.29501761134651</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:25">
       <c r="A25" s="48">
         <v>-9.0000000000000011E-3</v>
       </c>
@@ -7998,14 +8084,17 @@
       <c r="V25" s="52">
         <v>3</v>
       </c>
-      <c r="W25" s="52">
+      <c r="W25" s="56">
         <f>SQRT(($H$9+(0.5*($M$2*10^-3)*(W24*10^2)))/(0.5*($M$2*10^-3)))</f>
         <v>62.575374179130741</v>
       </c>
-      <c r="X25" s="55"/>
+      <c r="X25" s="59">
+        <f t="shared" si="6"/>
+        <v>225.27134704487068</v>
+      </c>
       <c r="Y25" s="4"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:25">
       <c r="A26" s="48">
         <v>-8.0000000000000002E-3</v>
       </c>
@@ -8050,14 +8139,17 @@
       <c r="V26" s="52">
         <v>4</v>
       </c>
-      <c r="W26" s="52">
+      <c r="W26" s="56">
         <f>SQRT(($H$9+(0.5*($M$2*10^-3)*(W25*10^2)))/(0.5*($M$2*10^-3)))</f>
         <v>80.093819598785416</v>
       </c>
-      <c r="X26" s="55"/>
+      <c r="X26" s="57">
+        <f t="shared" si="6"/>
+        <v>288.33775055562751</v>
+      </c>
       <c r="Y26" s="4"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:25">
       <c r="A27" s="48">
         <v>-7.0000000000000001E-3</v>
       </c>
@@ -8100,14 +8192,17 @@
       <c r="V27" s="52">
         <v>5</v>
       </c>
-      <c r="W27" s="52">
+      <c r="W27" s="56">
         <f>SQRT(($H$9+(0.5*($M$2*10^-3)*(W26*10^2)))/(0.5*($M$2*10^-3)))</f>
         <v>90.370705872468704</v>
       </c>
-      <c r="X27" s="55"/>
+      <c r="X27" s="58">
+        <f t="shared" si="6"/>
+        <v>325.33454114088732</v>
+      </c>
       <c r="Y27" s="4"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:25">
       <c r="A28" s="48">
         <v>-6.0000000000000001E-3</v>
       </c>
@@ -8150,14 +8245,17 @@
       <c r="V28" s="52">
         <v>6</v>
       </c>
-      <c r="W28" s="52">
+      <c r="W28" s="56">
         <f>SQRT(($H$9+(0.5*($M$2*10^-3)*(W27*10^2)))/(0.5*($M$2*10^-3)))</f>
         <v>95.888232371113077</v>
       </c>
-      <c r="X28" s="55"/>
+      <c r="X28" s="59">
+        <f t="shared" si="6"/>
+        <v>345.19763653600711</v>
+      </c>
       <c r="Y28" s="4"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:25">
       <c r="A29" s="48">
         <v>-5.0000000000000001E-3</v>
       </c>
@@ -8200,14 +8298,17 @@
       <c r="V29" s="52">
         <v>7</v>
       </c>
-      <c r="W29" s="52">
-        <f t="shared" ref="W29:W32" si="6">SQRT(($H$9+(0.5*($M$2*10^-3)*(W28*10^2)))/(0.5*($M$2*10^-3)))</f>
+      <c r="W29" s="56">
+        <f t="shared" ref="W29:W32" si="7">SQRT(($H$9+(0.5*($M$2*10^-3)*(W28*10^2)))/(0.5*($M$2*10^-3)))</f>
         <v>98.723379992385873</v>
       </c>
-      <c r="X29" s="55"/>
+      <c r="X29" s="57">
+        <f t="shared" si="6"/>
+        <v>355.40416797258916</v>
+      </c>
       <c r="Y29" s="4"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:25">
       <c r="A30" s="48">
         <v>-4.0000000000000001E-3</v>
       </c>
@@ -8250,14 +8351,17 @@
       <c r="V30" s="52">
         <v>8</v>
       </c>
-      <c r="W30" s="52">
+      <c r="W30" s="56">
+        <f t="shared" si="7"/>
+        <v>100.14899160375153</v>
+      </c>
+      <c r="X30" s="59">
         <f t="shared" si="6"/>
-        <v>100.14899160375153</v>
-      </c>
-      <c r="X30" s="55"/>
+        <v>360.5363697735055</v>
+      </c>
       <c r="Y30" s="4"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:25">
       <c r="A31" s="48">
         <v>-3.0000000000000001E-3</v>
       </c>
@@ -8300,14 +8404,17 @@
       <c r="V31" s="52">
         <v>9</v>
       </c>
-      <c r="W31" s="52">
+      <c r="W31" s="56">
+        <f t="shared" si="7"/>
+        <v>100.85822564563021</v>
+      </c>
+      <c r="X31" s="57">
         <f t="shared" si="6"/>
-        <v>100.85822564563021</v>
-      </c>
-      <c r="X31" s="55"/>
+        <v>363.08961232426878</v>
+      </c>
       <c r="Y31" s="4"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:25">
       <c r="A32" s="48">
         <v>-2E-3</v>
       </c>
@@ -8347,17 +8454,20 @@
         <f t="shared" si="5"/>
         <v>22.977354106562068</v>
       </c>
-      <c r="V32" s="54">
+      <c r="V32" s="53">
         <v>10</v>
       </c>
-      <c r="W32" s="54">
+      <c r="W32" s="60">
+        <f t="shared" si="7"/>
+        <v>101.20921442523269</v>
+      </c>
+      <c r="X32" s="57">
         <f t="shared" si="6"/>
-        <v>101.20921442523269</v>
-      </c>
-      <c r="X32" s="55"/>
+        <v>364.35317193083768</v>
+      </c>
       <c r="Y32" s="4"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:25">
       <c r="A33" s="48">
         <v>-1E-3</v>
       </c>
@@ -8397,17 +8507,20 @@
         <f t="shared" si="5"/>
         <v>23.797973896082141</v>
       </c>
-      <c r="V33" s="54">
+      <c r="V33" s="53">
         <v>11</v>
       </c>
-      <c r="W33" s="54">
-        <f t="shared" ref="W33:W42" si="7">SQRT(($H$9+(0.5*($M$2*10^-3)*(W32*10^2)))/(0.5*($M$2*10^-3)))</f>
+      <c r="W33" s="60">
+        <f t="shared" ref="W33:W42" si="8">SQRT(($H$9+(0.5*($M$2*10^-3)*(W32*10^2)))/(0.5*($M$2*10^-3)))</f>
         <v>101.38246378212052</v>
       </c>
-      <c r="X33" s="55"/>
+      <c r="X33" s="57">
+        <f t="shared" si="6"/>
+        <v>364.97686961563392</v>
+      </c>
       <c r="Y33" s="4"/>
     </row>
-    <row r="34" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="A34" s="48">
         <v>0</v>
       </c>
@@ -8448,17 +8561,20 @@
         <f t="shared" si="5"/>
         <v>24.618593685602214</v>
       </c>
-      <c r="V34" s="54">
+      <c r="V34" s="53">
         <v>12</v>
       </c>
-      <c r="W34" s="54">
-        <f t="shared" si="7"/>
+      <c r="W34" s="60">
+        <f t="shared" si="8"/>
         <v>101.46787126091569</v>
       </c>
-      <c r="X34" s="55"/>
+      <c r="X34" s="57">
+        <f t="shared" si="6"/>
+        <v>365.28433653929648</v>
+      </c>
       <c r="Y34" s="4"/>
     </row>
-    <row r="35" spans="1:25" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:25" ht="14.65" thickTop="1">
       <c r="A35" s="48">
         <v>1E-3</v>
       </c>
@@ -8494,17 +8610,20 @@
         <f t="shared" si="5"/>
         <v>25.43921347512229</v>
       </c>
-      <c r="V35" s="54">
+      <c r="V35" s="53">
         <v>13</v>
       </c>
-      <c r="W35" s="54">
-        <f t="shared" si="7"/>
+      <c r="W35" s="60">
+        <f t="shared" si="8"/>
         <v>101.50994850802199</v>
       </c>
-      <c r="X35" s="55"/>
+      <c r="X35" s="57">
+        <f t="shared" si="6"/>
+        <v>365.4358146288792</v>
+      </c>
       <c r="Y35" s="4"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:25">
       <c r="A36" s="48">
         <v>2E-3</v>
       </c>
@@ -8522,7 +8641,7 @@
         <v>320</v>
       </c>
       <c r="P36" s="29">
-        <f t="shared" ref="P36:P54" si="8">SQRT(((680*10^-6)*(O36^2)*($H$13/100))/($M$2*10^-3))</f>
+        <f t="shared" ref="P36:P54" si="9">SQRT(((680*10^-6)*(O36^2)*($H$13/100))/($M$2*10^-3))</f>
         <v>9.1266937885122008</v>
       </c>
       <c r="Q36" s="36">
@@ -8533,24 +8652,27 @@
         <v>320</v>
       </c>
       <c r="S36" s="29">
-        <f t="shared" ref="S36:S54" si="9">SQRT(((680*10^-6)*(R36^2)*($J$13/100))/($M$2*10^-3))</f>
+        <f t="shared" ref="S36:S54" si="10">SQRT(((680*10^-6)*(R36^2)*($J$13/100))/($M$2*10^-3))</f>
         <v>7.2943981290673223</v>
       </c>
       <c r="T36" s="36">
         <f t="shared" si="5"/>
         <v>26.25983326464236</v>
       </c>
-      <c r="V36" s="54">
+      <c r="V36" s="53">
         <v>14</v>
       </c>
-      <c r="W36" s="54">
-        <f t="shared" si="7"/>
+      <c r="W36" s="60">
+        <f t="shared" si="8"/>
         <v>101.53067206914325</v>
       </c>
-      <c r="X36" s="55"/>
+      <c r="X36" s="58">
+        <f t="shared" si="6"/>
+        <v>365.51041944891568</v>
+      </c>
       <c r="Y36" s="4"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:25">
       <c r="A37" s="48">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -8568,7 +8690,7 @@
         <v>330</v>
       </c>
       <c r="P37" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.4119029694032061</v>
       </c>
       <c r="Q37" s="36">
@@ -8579,24 +8701,27 @@
         <v>330</v>
       </c>
       <c r="S37" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.5223480706006765</v>
       </c>
       <c r="T37" s="36">
         <f t="shared" si="5"/>
         <v>27.080453054162437</v>
       </c>
-      <c r="V37" s="54">
+      <c r="V37" s="53">
         <v>15</v>
       </c>
-      <c r="W37" s="54">
-        <f t="shared" si="7"/>
+      <c r="W37" s="60">
+        <f t="shared" si="8"/>
         <v>101.54087712307803</v>
       </c>
-      <c r="X37" s="55"/>
+      <c r="X37" s="58">
+        <f t="shared" si="6"/>
+        <v>365.54715764308094</v>
+      </c>
       <c r="Y37" s="4"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:25">
       <c r="A38" s="48">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -8614,7 +8739,7 @@
         <v>340</v>
       </c>
       <c r="P38" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.6971121502942115</v>
       </c>
       <c r="Q38" s="36">
@@ -8625,24 +8750,27 @@
         <v>340</v>
       </c>
       <c r="S38" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.7502980121340306</v>
       </c>
       <c r="T38" s="36">
         <f t="shared" si="5"/>
         <v>27.90107284368251</v>
       </c>
-      <c r="V38" s="54">
+      <c r="V38" s="53">
         <v>16</v>
       </c>
-      <c r="W38" s="54">
-        <f t="shared" si="7"/>
+      <c r="W38" s="60">
+        <f t="shared" si="8"/>
         <v>101.54590209514862</v>
       </c>
-      <c r="X38" s="55"/>
+      <c r="X38" s="59">
+        <f t="shared" si="6"/>
+        <v>365.56524754253502</v>
+      </c>
       <c r="Y38" s="4"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:25">
       <c r="A39" s="48">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -8660,7 +8788,7 @@
         <v>350</v>
       </c>
       <c r="P39" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.9823213311852186</v>
       </c>
       <c r="Q39" s="36">
@@ -8671,24 +8799,27 @@
         <v>350</v>
       </c>
       <c r="S39" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.9782479536673847</v>
       </c>
       <c r="T39" s="36">
         <f t="shared" si="5"/>
         <v>28.721692633202586</v>
       </c>
-      <c r="V39" s="54">
+      <c r="V39" s="53">
         <v>17</v>
       </c>
-      <c r="W39" s="54">
-        <f t="shared" si="7"/>
+      <c r="W39" s="60">
+        <f t="shared" si="8"/>
         <v>101.54837630176353</v>
       </c>
-      <c r="X39" s="55"/>
+      <c r="X39" s="57">
+        <f t="shared" si="6"/>
+        <v>365.57415468634872</v>
+      </c>
       <c r="Y39" s="4"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:25">
       <c r="A40" s="48">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -8706,7 +8837,7 @@
         <v>360</v>
       </c>
       <c r="P40" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10.267530512076224</v>
       </c>
       <c r="Q40" s="36">
@@ -8717,24 +8848,27 @@
         <v>360</v>
       </c>
       <c r="S40" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.2061978952007379</v>
       </c>
       <c r="T40" s="36">
         <f t="shared" si="5"/>
         <v>29.542312422722656</v>
       </c>
-      <c r="V40" s="54">
+      <c r="V40" s="53">
         <v>18</v>
       </c>
-      <c r="W40" s="54">
-        <f t="shared" si="7"/>
+      <c r="W40" s="60">
+        <f t="shared" si="8"/>
         <v>101.54959453481861</v>
       </c>
-      <c r="X40" s="55"/>
+      <c r="X40" s="58">
+        <f t="shared" si="6"/>
+        <v>365.57854032534698</v>
+      </c>
       <c r="Y40" s="4"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:25">
       <c r="A41" s="48">
         <v>7.0000000000000001E-3</v>
       </c>
@@ -8752,7 +8886,7 @@
         <v>370</v>
       </c>
       <c r="P41" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10.552739692967231</v>
       </c>
       <c r="Q41" s="36">
@@ -8763,24 +8897,27 @@
         <v>370</v>
       </c>
       <c r="S41" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.434147836734093</v>
       </c>
       <c r="T41" s="36">
         <f t="shared" si="5"/>
         <v>30.362932212242736</v>
       </c>
-      <c r="V41" s="54">
+      <c r="V41" s="53">
         <v>19</v>
       </c>
-      <c r="W41" s="54">
-        <f t="shared" si="7"/>
+      <c r="W41" s="60">
+        <f t="shared" si="8"/>
         <v>101.55019435477004</v>
       </c>
-      <c r="X41" s="55"/>
+      <c r="X41" s="58">
+        <f t="shared" si="6"/>
+        <v>365.58069967717216</v>
+      </c>
       <c r="Y41" s="4"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:25">
       <c r="A42" s="48">
         <v>8.0000000000000002E-3</v>
       </c>
@@ -8798,7 +8935,7 @@
         <v>380</v>
       </c>
       <c r="P42" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10.837948873858238</v>
       </c>
       <c r="Q42" s="36">
@@ -8809,7 +8946,7 @@
         <v>380</v>
       </c>
       <c r="S42" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.6620977782674462</v>
       </c>
       <c r="T42" s="36">
@@ -8819,14 +8956,17 @@
       <c r="V42" s="52">
         <v>20</v>
       </c>
-      <c r="W42" s="52">
-        <f t="shared" si="7"/>
+      <c r="W42" s="56">
+        <f t="shared" si="8"/>
         <v>101.55048968610005</v>
       </c>
-      <c r="X42" s="55"/>
+      <c r="X42" s="58">
+        <f t="shared" si="6"/>
+        <v>365.58176286996019</v>
+      </c>
       <c r="Y42" s="4"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:25">
       <c r="A43" s="48">
         <v>9.0000000000000011E-3</v>
       </c>
@@ -8844,7 +8984,7 @@
         <v>390</v>
       </c>
       <c r="P43" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11.123158054749245</v>
       </c>
       <c r="Q43" s="36">
@@ -8855,19 +8995,19 @@
         <v>390</v>
       </c>
       <c r="S43" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.8900477198007994</v>
       </c>
       <c r="T43" s="36">
         <f t="shared" si="5"/>
         <v>32.004171791282879</v>
       </c>
-      <c r="V43" s="56"/>
-      <c r="W43" s="56"/>
-      <c r="X43" s="55"/>
+      <c r="V43" s="55"/>
+      <c r="W43" s="55"/>
+      <c r="X43" s="54"/>
       <c r="Y43" s="4"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:25">
       <c r="A44" s="48">
         <v>0.01</v>
       </c>
@@ -8885,7 +9025,7 @@
         <v>400</v>
       </c>
       <c r="P44" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11.408367235640251</v>
       </c>
       <c r="Q44" s="36">
@@ -8896,19 +9036,19 @@
         <v>400</v>
       </c>
       <c r="S44" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.1179976613341527</v>
       </c>
       <c r="T44" s="36">
         <f t="shared" si="5"/>
         <v>32.824791580802952</v>
       </c>
-      <c r="V44" s="56"/>
-      <c r="W44" s="56"/>
-      <c r="X44" s="55"/>
+      <c r="V44" s="55"/>
+      <c r="W44" s="55"/>
+      <c r="X44" s="54"/>
       <c r="Y44" s="4"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:25">
       <c r="A45" s="48">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -8926,7 +9066,7 @@
         <v>410</v>
       </c>
       <c r="P45" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11.693576416531258</v>
       </c>
       <c r="Q45" s="36">
@@ -8937,19 +9077,19 @@
         <v>410</v>
       </c>
       <c r="S45" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.3459476028675077</v>
       </c>
       <c r="T45" s="36">
         <f t="shared" si="5"/>
         <v>33.645411370323032</v>
       </c>
-      <c r="V45" s="56"/>
-      <c r="W45" s="56"/>
-      <c r="X45" s="55"/>
+      <c r="V45" s="55"/>
+      <c r="W45" s="55"/>
+      <c r="X45" s="54"/>
       <c r="Y45" s="4"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:25">
       <c r="A46" s="48">
         <v>1.2E-2</v>
       </c>
@@ -8967,7 +9107,7 @@
         <v>420</v>
       </c>
       <c r="P46" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11.978785597422261</v>
       </c>
       <c r="Q46" s="36">
@@ -8978,19 +9118,19 @@
         <v>420</v>
       </c>
       <c r="S46" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.5738975444008609</v>
       </c>
       <c r="T46" s="36">
         <f t="shared" si="5"/>
         <v>34.466031159843098</v>
       </c>
-      <c r="V46" s="56"/>
-      <c r="W46" s="56"/>
-      <c r="X46" s="55"/>
+      <c r="V46" s="55"/>
+      <c r="W46" s="55"/>
+      <c r="X46" s="54"/>
       <c r="Y46" s="4"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:25">
       <c r="A47" s="48">
         <v>1.3000000000000001E-2</v>
       </c>
@@ -9008,7 +9148,7 @@
         <v>430</v>
       </c>
       <c r="P47" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12.263994778313268</v>
       </c>
       <c r="Q47" s="36">
@@ -9019,19 +9159,19 @@
         <v>430</v>
       </c>
       <c r="S47" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.8018474859342142</v>
       </c>
       <c r="T47" s="36">
         <f t="shared" si="5"/>
         <v>35.286650949363171</v>
       </c>
-      <c r="V47" s="56"/>
-      <c r="W47" s="56"/>
-      <c r="X47" s="55"/>
+      <c r="V47" s="55"/>
+      <c r="W47" s="55"/>
+      <c r="X47" s="54"/>
       <c r="Y47" s="4"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:25">
       <c r="A48" s="48">
         <v>1.4E-2</v>
       </c>
@@ -9049,7 +9189,7 @@
         <v>440</v>
       </c>
       <c r="P48" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12.549203959204275</v>
       </c>
       <c r="Q48" s="36">
@@ -9060,19 +9200,19 @@
         <v>440</v>
       </c>
       <c r="S48" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.029797427467569</v>
       </c>
       <c r="T48" s="36">
         <f t="shared" si="5"/>
         <v>36.107270738883251</v>
       </c>
-      <c r="V48" s="56"/>
-      <c r="W48" s="56"/>
-      <c r="X48" s="55"/>
+      <c r="V48" s="55"/>
+      <c r="W48" s="55"/>
+      <c r="X48" s="54"/>
       <c r="Y48" s="4"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:25">
       <c r="A49" s="48">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -9090,7 +9230,7 @@
         <v>450</v>
       </c>
       <c r="P49" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12.834413140095283</v>
       </c>
       <c r="Q49" s="36">
@@ -9101,19 +9241,19 @@
         <v>450</v>
       </c>
       <c r="S49" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.257747369000922</v>
       </c>
       <c r="T49" s="36">
         <f t="shared" si="5"/>
         <v>36.927890528403324</v>
       </c>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="54"/>
       <c r="Y49" s="4"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:25">
       <c r="A50" s="48">
         <v>1.6E-2</v>
       </c>
@@ -9131,7 +9271,7 @@
         <v>460</v>
       </c>
       <c r="P50" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13.119622320986288</v>
       </c>
       <c r="Q50" s="36">
@@ -9142,19 +9282,19 @@
         <v>460</v>
       </c>
       <c r="S50" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.485697310534276</v>
       </c>
       <c r="T50" s="36">
         <f t="shared" si="5"/>
         <v>37.74851031792339</v>
       </c>
-      <c r="V50" s="56"/>
-      <c r="W50" s="56"/>
-      <c r="X50" s="55"/>
+      <c r="V50" s="55"/>
+      <c r="W50" s="55"/>
+      <c r="X50" s="54"/>
       <c r="Y50" s="4"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:25">
       <c r="A51" s="48">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -9172,7 +9312,7 @@
         <v>470</v>
       </c>
       <c r="P51" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13.404831501877295</v>
       </c>
       <c r="Q51" s="36">
@@ -9183,18 +9323,18 @@
         <v>470</v>
       </c>
       <c r="S51" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.713647252067631</v>
       </c>
       <c r="T51" s="36">
         <f t="shared" si="5"/>
         <v>38.56913010744347</v>
       </c>
-      <c r="V51" s="56"/>
-      <c r="W51" s="56"/>
-      <c r="X51" s="55"/>
+      <c r="V51" s="55"/>
+      <c r="W51" s="55"/>
+      <c r="X51" s="54"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:25">
       <c r="A52" s="48">
         <v>1.8000000000000002E-2</v>
       </c>
@@ -9212,7 +9352,7 @@
         <v>480</v>
       </c>
       <c r="P52" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13.690040682768302</v>
       </c>
       <c r="Q52" s="36">
@@ -9223,18 +9363,18 @@
         <v>480</v>
       </c>
       <c r="S52" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.941597193600984</v>
       </c>
       <c r="T52" s="36">
         <f t="shared" si="5"/>
         <v>39.389749896963544</v>
       </c>
-      <c r="V52" s="56"/>
-      <c r="W52" s="56"/>
-      <c r="X52" s="55"/>
+      <c r="V52" s="55"/>
+      <c r="W52" s="55"/>
+      <c r="X52" s="54"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:25">
       <c r="A53" s="48">
         <v>1.9E-2</v>
       </c>
@@ -9252,7 +9392,7 @@
         <v>490</v>
       </c>
       <c r="P53" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13.975249863659306</v>
       </c>
       <c r="Q53" s="36">
@@ -9263,18 +9403,18 @@
         <v>490</v>
       </c>
       <c r="S53" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11.169547135134337</v>
       </c>
       <c r="T53" s="36">
         <f t="shared" si="5"/>
         <v>40.210369686483617</v>
       </c>
-      <c r="V53" s="56"/>
-      <c r="W53" s="56"/>
-      <c r="X53" s="55"/>
+      <c r="V53" s="55"/>
+      <c r="W53" s="55"/>
+      <c r="X53" s="54"/>
     </row>
-    <row r="54" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:25" ht="14.65" thickBot="1">
       <c r="A54" s="48">
         <v>0.02</v>
       </c>
@@ -9293,7 +9433,7 @@
         <v>500</v>
       </c>
       <c r="P54" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14.260459044550311</v>
       </c>
       <c r="Q54" s="40">
@@ -9304,18 +9444,18 @@
         <v>500</v>
       </c>
       <c r="S54" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11.39749707666769</v>
       </c>
       <c r="T54" s="40">
         <f t="shared" si="5"/>
         <v>41.03098947600369</v>
       </c>
-      <c r="V54" s="56"/>
-      <c r="W54" s="56"/>
-      <c r="X54" s="55"/>
+      <c r="V54" s="55"/>
+      <c r="W54" s="55"/>
+      <c r="X54" s="54"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:25">
       <c r="A55" s="48">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -9329,10 +9469,10 @@
         <v>-10.7037534291194</v>
       </c>
       <c r="E55" s="44"/>
-      <c r="V55" s="56"/>
-      <c r="W55" s="56"/>
+      <c r="V55" s="55"/>
+      <c r="W55" s="55"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:25">
       <c r="A56" s="48">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -9346,10 +9486,10 @@
         <v>-8.8343301265349101</v>
       </c>
       <c r="E56" s="44"/>
-      <c r="V56" s="56"/>
-      <c r="W56" s="56"/>
+      <c r="V56" s="55"/>
+      <c r="W56" s="55"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:25">
       <c r="A57" s="48">
         <v>2.3E-2</v>
       </c>
@@ -9363,10 +9503,10 @@
         <v>-7.29063411918096</v>
       </c>
       <c r="E57" s="44"/>
-      <c r="V57" s="56"/>
-      <c r="W57" s="56"/>
+      <c r="V57" s="55"/>
+      <c r="W57" s="55"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:25">
       <c r="A58" s="48">
         <v>2.4E-2</v>
       </c>
@@ -9380,10 +9520,10 @@
         <v>-6.02178481465989</v>
       </c>
       <c r="E58" s="44"/>
-      <c r="V58" s="56"/>
-      <c r="W58" s="56"/>
+      <c r="V58" s="55"/>
+      <c r="W58" s="55"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:25">
       <c r="A59" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -9397,10 +9537,10 @@
         <v>-4.9788895002781599</v>
       </c>
       <c r="E59" s="44"/>
-      <c r="V59" s="56"/>
-      <c r="W59" s="56"/>
+      <c r="V59" s="55"/>
+      <c r="W59" s="55"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:25">
       <c r="A60" s="48">
         <v>2.6000000000000002E-2</v>
       </c>
@@ -9414,10 +9554,10 @@
         <v>-4.1245593859307998</v>
       </c>
       <c r="E60" s="44"/>
-      <c r="V60" s="56"/>
-      <c r="W60" s="56"/>
+      <c r="V60" s="55"/>
+      <c r="W60" s="55"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:25">
       <c r="A61" s="48">
         <v>2.7E-2</v>
       </c>
@@ -9431,10 +9571,10 @@
         <v>-3.4249102537281799</v>
       </c>
       <c r="E61" s="44"/>
-      <c r="V61" s="56"/>
-      <c r="W61" s="56"/>
+      <c r="V61" s="55"/>
+      <c r="W61" s="55"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:25">
       <c r="A62" s="48">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -9448,10 +9588,10 @@
         <v>-2.8506298309514402</v>
       </c>
       <c r="E62" s="44"/>
-      <c r="V62" s="56"/>
-      <c r="W62" s="56"/>
+      <c r="V62" s="55"/>
+      <c r="W62" s="55"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:25">
       <c r="A63" s="48">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -9466,7 +9606,7 @@
       </c>
       <c r="E63" s="44"/>
     </row>
-    <row r="64" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:25" ht="14.65" thickBot="1">
       <c r="A64" s="49">
         <v>0.03</v>
       </c>
@@ -9483,6 +9623,7 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="V21:X21"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="O1:T1"/>
     <mergeCell ref="G8:J8"/>
@@ -9492,7 +9633,6 @@
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="L11:M12"/>
-    <mergeCell ref="V21:W21"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="I2:J2"/>
